--- a/MANALO, STEPHANIE CONCEPCION.xlsx
+++ b/MANALO, STEPHANIE CONCEPCION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A9FA2-141A-446C-8E81-CC356B53932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -416,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,10 +567,7 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1054,7 +1052,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1095,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1159,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1219,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1285,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1348,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1446,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1505,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1570,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1613,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1688,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1874,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1940,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +1998,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2064,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2120,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2195,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2238,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2304,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2360,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2458,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2521,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2570,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2589,25 +2587,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K70" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K70" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2619,13 +2617,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2634,14 +2632,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2945,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2955,7 +2953,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2963,99 +2961,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="59">
         <v>44929</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3063,7 +3061,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3076,24 +3074,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3137,7 +3135,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>7.9169999999999998</v>
+        <v>8.1669999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,12 +3145,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>8.9169999999999998</v>
+        <v>10.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +3172,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>44929</v>
       </c>
@@ -3194,9 +3192,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3214,9 +3212,9 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -3240,9 +3238,9 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3260,9 +3258,9 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3280,9 +3278,9 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3306,9 +3304,9 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -3326,9 +3324,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3346,22 +3344,24 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="38">
         <v>1</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="9"/>
@@ -3370,13 +3370,17 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B20" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="38">
+        <v>1</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -3386,11 +3390,13 @@
       <c r="H20" s="38"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="48">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -3406,9 +3412,9 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -3424,9 +3430,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -3442,9 +3448,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3460,9 +3466,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3478,9 +3484,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3496,9 +3502,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3514,9 +3520,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3532,9 +3538,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3550,9 +3556,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3568,9 +3574,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3586,9 +3592,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3604,9 +3610,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3622,9 +3628,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3640,9 +3646,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3658,9 +3664,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3676,9 +3682,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3694,9 +3700,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3712,9 +3718,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3730,9 +3736,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3748,9 +3754,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3766,9 +3772,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3784,9 +3790,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3802,9 +3808,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3820,9 +3826,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3838,7 +3844,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3854,7 +3860,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3870,7 +3876,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3886,7 +3892,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3902,7 +3908,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3918,7 +3924,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3934,7 +3940,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3950,7 +3956,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3966,7 +3972,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3982,7 +3988,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3998,7 +4004,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4014,7 +4020,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4030,7 +4036,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4046,7 +4052,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4062,7 +4068,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4078,7 +4084,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4094,7 +4100,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4110,7 +4116,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4126,7 +4132,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4142,7 +4148,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4158,7 +4164,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4174,7 +4180,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4190,7 +4196,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4206,7 +4212,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4222,7 +4228,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="15"/>
       <c r="C70" s="41"/>
@@ -4253,10 +4259,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4279,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4287,34 +4293,34 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="D2" s="7" t="s">
@@ -4339,9 +4345,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -4361,17 +4367,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
@@ -4388,17 +4394,17 @@
         <v>28</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
-        <v>16.834</v>
+        <v>18.334</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -4426,7 +4432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4710,7 +4716,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4920,7 +4926,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5097,7 +5103,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5106,7 +5112,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5115,7 +5121,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5124,7 +5130,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5133,7 +5139,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5142,7 +5148,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5151,7 +5157,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5160,7 +5166,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5169,7 +5175,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5178,7 +5184,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5187,7 +5193,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5205,7 +5211,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5214,7 +5220,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5232,7 +5238,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5241,7 +5247,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5250,7 +5256,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5259,7 +5265,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5268,7 +5274,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5277,7 +5283,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5286,7 +5292,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5295,7 +5301,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5304,7 +5310,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5313,7 +5319,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5322,7 +5328,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5331,7 +5337,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5340,7 +5346,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5349,7 +5355,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
